--- a/resultTest4/jxh0.3-0.4-jxw0.4-0.5-cw0.12-0.12normB.xlsx
+++ b/resultTest4/jxh0.3-0.4-jxw0.4-0.5-cw0.12-0.12normB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\paper1\resultTest4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7292E41-2BBB-4432-8D76-ED5D5F10F95A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA71C52E-90DE-4C50-A9CE-87B1293A9295}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3750" windowWidth="21600" windowHeight="11370"/>
   </bookViews>
@@ -26,36 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>槽高[mm]</t>
-  </si>
-  <si>
-    <t>槽宽[mm]</t>
-  </si>
-  <si>
-    <t>极齿宽[mm]</t>
-  </si>
-  <si>
-    <t>左极齿ΔB[T]</t>
-  </si>
-  <si>
-    <t>左极齿数</t>
-  </si>
-  <si>
-    <t>右极齿ΔB[T]</t>
-  </si>
-  <si>
-    <t>右极齿数</t>
-  </si>
-  <si>
-    <t>总ΔB[T]</t>
   </si>
   <si>
     <t>序号</t>
@@ -141,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -151,20 +124,18 @@
     </border>
     <border/>
     <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -478,7 +449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1828B29-A180-46FD-B1B4-66C5BD112752}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB74BC85-0696-4D32-A7D1-A2490880848F}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
@@ -505,40 +476,40 @@
     <col min="2" max="2" width="9.125" customWidth="true"/>
     <col min="3" max="3" width="9.125" customWidth="true"/>
     <col min="4" max="4" width="11" customWidth="true"/>
-    <col min="5" max="5" width="11.5" customWidth="true"/>
+    <col min="5" max="5" width="10.875" customWidth="true"/>
     <col min="6" max="6" width="8.625" customWidth="true"/>
-    <col min="7" max="7" width="11.5" customWidth="true"/>
+    <col min="7" max="7" width="10.875" customWidth="true"/>
     <col min="8" max="8" width="8.625" customWidth="true"/>
-    <col min="9" max="9" width="11.5" customWidth="true"/>
+    <col min="9" max="9" width="7.125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -555,19 +526,19 @@
         <v>0.12</v>
       </c>
       <c r="E2" s="0">
-        <v>12.04456704356055</v>
+        <v>0</v>
       </c>
       <c r="F2" s="0">
         <v>39</v>
       </c>
       <c r="G2" s="0">
-        <v>12.098203391740315</v>
+        <v>0</v>
       </c>
       <c r="H2" s="0">
         <v>39</v>
       </c>
       <c r="I2" s="0">
-        <v>24.142770435300864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -584,19 +555,19 @@
         <v>0.12</v>
       </c>
       <c r="E3" s="0">
-        <v>12.02092882391249</v>
+        <v>0</v>
       </c>
       <c r="F3" s="0">
         <v>32</v>
       </c>
       <c r="G3" s="0">
-        <v>12.0693139599326</v>
+        <v>0</v>
       </c>
       <c r="H3" s="0">
         <v>32</v>
       </c>
       <c r="I3" s="0">
-        <v>24.090242783845092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -613,19 +584,19 @@
         <v>0.12</v>
       </c>
       <c r="E4" s="0">
-        <v>12.060993222373328</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0">
         <v>39</v>
       </c>
       <c r="G4" s="0">
-        <v>12.112840041273344</v>
+        <v>0</v>
       </c>
       <c r="H4" s="0">
         <v>39</v>
       </c>
       <c r="I4" s="0">
-        <v>24.173833263646671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -642,19 +613,19 @@
         <v>0.12</v>
       </c>
       <c r="E5" s="0">
-        <v>12.122862468153992</v>
+        <v>0</v>
       </c>
       <c r="F5" s="0">
         <v>32</v>
       </c>
       <c r="G5" s="0">
-        <v>12.166709241921431</v>
+        <v>0</v>
       </c>
       <c r="H5" s="0">
         <v>32</v>
       </c>
       <c r="I5" s="0">
-        <v>24.289571710075421</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
